--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H2">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N2">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O2">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P2">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q2">
-        <v>1.999240192873333</v>
+        <v>14.566181182394</v>
       </c>
       <c r="R2">
-        <v>17.99316173586</v>
+        <v>131.095630641546</v>
       </c>
       <c r="S2">
-        <v>0.0236827406674961</v>
+        <v>0.09006635879467877</v>
       </c>
       <c r="T2">
-        <v>0.02368274066749609</v>
+        <v>0.09006635879467877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H3">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I3">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J3">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.660931</v>
       </c>
       <c r="O3">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P3">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q3">
-        <v>25.55857174772045</v>
+        <v>52.17169419495621</v>
       </c>
       <c r="R3">
-        <v>230.027145729484</v>
+        <v>469.5452477546059</v>
       </c>
       <c r="S3">
-        <v>0.3027635342119224</v>
+        <v>0.3225906961783997</v>
       </c>
       <c r="T3">
-        <v>0.3027635342119224</v>
+        <v>0.3225906961783998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H4">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I4">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J4">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N4">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O4">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P4">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q4">
-        <v>34.88232036847823</v>
+        <v>71.20389077441509</v>
       </c>
       <c r="R4">
-        <v>313.9408833163041</v>
+        <v>640.8350169697359</v>
       </c>
       <c r="S4">
-        <v>0.4132114540874114</v>
+        <v>0.440271550501995</v>
       </c>
       <c r="T4">
-        <v>0.4132114540874114</v>
+        <v>0.440271550501995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J5">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N5">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O5">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P5">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q5">
-        <v>0.2221328214066667</v>
+        <v>0.7928574425959999</v>
       </c>
       <c r="R5">
-        <v>1.99919539266</v>
+        <v>7.135716983364</v>
       </c>
       <c r="S5">
-        <v>0.002631356663329456</v>
+        <v>0.0049024368160541</v>
       </c>
       <c r="T5">
-        <v>0.002631356663329456</v>
+        <v>0.004902436816054099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J6">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.660931</v>
       </c>
       <c r="O6">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P6">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q6">
-        <v>2.839777668378223</v>
+        <v>2.839777668378222</v>
       </c>
       <c r="R6">
         <v>25.557999015404</v>
       </c>
       <c r="S6">
-        <v>0.03363963885544452</v>
+        <v>0.017559058971916</v>
       </c>
       <c r="T6">
-        <v>0.03363963885544452</v>
+        <v>0.017559058971916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J7">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N7">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O7">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P7">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q7">
-        <v>3.875726522647112</v>
+        <v>3.875726522647111</v>
       </c>
       <c r="R7">
-        <v>34.88153870382401</v>
+        <v>34.881538703824</v>
       </c>
       <c r="S7">
-        <v>0.04591135495433862</v>
+        <v>0.02396459107626013</v>
       </c>
       <c r="T7">
-        <v>0.04591135495433862</v>
+        <v>0.02396459107626013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H8">
         <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N8">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O8">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P8">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q8">
-        <v>0.48155310219</v>
+        <v>1.718804806325999</v>
       </c>
       <c r="R8">
-        <v>4.333977919710001</v>
+        <v>15.469243256934</v>
       </c>
       <c r="S8">
-        <v>0.00570441574626575</v>
+        <v>0.01062780206054892</v>
       </c>
       <c r="T8">
-        <v>0.00570441574626575</v>
+        <v>0.01062780206054892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H9">
         <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.660931</v>
       </c>
       <c r="O9">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P9">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q9">
-        <v>6.156243535186</v>
+        <v>6.156243535185999</v>
       </c>
       <c r="R9">
-        <v>55.40619181667401</v>
+        <v>55.40619181667399</v>
       </c>
       <c r="S9">
-        <v>0.07292606443661907</v>
+        <v>0.038065600868515</v>
       </c>
       <c r="T9">
-        <v>0.07292606443661907</v>
+        <v>0.038065600868515</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H10">
         <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N10">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O10">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P10">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q10">
-        <v>8.402036756216003</v>
+        <v>8.402036756215997</v>
       </c>
       <c r="R10">
-        <v>75.61833080594403</v>
+        <v>75.61833080594398</v>
       </c>
       <c r="S10">
-        <v>0.09952944037717272</v>
+        <v>0.05195190473163237</v>
       </c>
       <c r="T10">
-        <v>0.09952944037717272</v>
+        <v>0.05195190473163237</v>
       </c>
     </row>
   </sheetData>
